--- a/test file/testfile.xlsx
+++ b/test file/testfile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\jeswin\API-Student-Project-Management-Portal-TCE-28510dae394a75419e7281a13a472d580f96da83\test file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\jeswin\API-Student-Project-Management-Portal-TCE\test file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F05CA46-B920-46C5-87E3-A8205477068E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDB669E-08AD-41B3-90CF-D6BBFD3C4ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9400" yWindow="1850" windowWidth="5930" windowHeight="7360" xr2:uid="{A0EB4A18-62D8-4169-9651-40FB982FFA08}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A0EB4A18-62D8-4169-9651-40FB982FFA08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>IT</t>
   </si>
   <si>
-    <t>19IT041</t>
-  </si>
-  <si>
     <t>18ES390 - A</t>
   </si>
   <si>
@@ -58,10 +55,13 @@
     <t>18ES390 - B</t>
   </si>
   <si>
-    <t>19IT082</t>
-  </si>
-  <si>
-    <t>19IT040</t>
+    <t>19IT027</t>
+  </si>
+  <si>
+    <t>19IT093</t>
+  </si>
+  <si>
+    <t>19IT025</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -437,10 +437,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -448,10 +448,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -459,10 +459,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
